--- a/Dataset/Open_Source_Dataset/Table_3.2.1.6.xlsx
+++ b/Dataset/Open_Source_Dataset/Table_3.2.1.6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="12">
   <si>
     <t>H2</t>
   </si>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -475,24 +475,12 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5">
@@ -513,24 +501,12 @@
       <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="5">
@@ -551,24 +527,12 @@
       <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5">
@@ -589,24 +553,12 @@
       <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="5">
@@ -627,24 +579,12 @@
       <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5">
@@ -665,24 +605,12 @@
       <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5">
@@ -703,24 +631,12 @@
       <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5">
@@ -741,24 +657,12 @@
       <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5">
@@ -779,24 +683,12 @@
       <c r="F9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5">
@@ -817,24 +709,12 @@
       <c r="F10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7">
@@ -855,24 +735,12 @@
       <c r="F11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7">
@@ -893,24 +761,12 @@
       <c r="F12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7">
@@ -931,24 +787,12 @@
       <c r="F13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="7">
@@ -969,24 +813,12 @@
       <c r="F14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7">
@@ -1007,24 +839,12 @@
       <c r="F15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7">
@@ -1045,24 +865,12 @@
       <c r="F16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7">
@@ -1083,24 +891,12 @@
       <c r="F17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0</v>
-      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7">
@@ -1121,24 +917,12 @@
       <c r="F18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7">
@@ -1159,24 +943,12 @@
       <c r="F19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0</v>
-      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="7">
@@ -1197,24 +969,12 @@
       <c r="F20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0</v>
-      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="7">
@@ -1235,24 +995,12 @@
       <c r="F21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="7">
@@ -1273,24 +1021,12 @@
       <c r="F22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0</v>
-      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7">
@@ -1311,24 +1047,12 @@
       <c r="F23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="5">
-        <v>0</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5">
-        <v>0</v>
-      </c>
-      <c r="L23" s="5">
-        <v>0</v>
-      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="7">
@@ -1349,24 +1073,12 @@
       <c r="F24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-      <c r="J24" s="5">
-        <v>0</v>
-      </c>
-      <c r="K24" s="5">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0</v>
-      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="7">
@@ -1387,24 +1099,12 @@
       <c r="F25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
-        <v>1</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5">
-        <v>0</v>
-      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="7">
@@ -1425,24 +1125,12 @@
       <c r="F26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0</v>
-      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7">
@@ -1463,24 +1151,12 @@
       <c r="F27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0</v>
-      </c>
-      <c r="L27" s="5">
-        <v>0</v>
-      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="7">
@@ -1501,24 +1177,12 @@
       <c r="F28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1</v>
-      </c>
-      <c r="I28" s="5">
-        <v>0</v>
-      </c>
-      <c r="J28" s="5">
-        <v>0</v>
-      </c>
-      <c r="K28" s="5">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5">
-        <v>0</v>
-      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="7">
@@ -1539,24 +1203,12 @@
       <c r="F29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0</v>
-      </c>
-      <c r="J29" s="5">
-        <v>0</v>
-      </c>
-      <c r="K29" s="5">
-        <v>0</v>
-      </c>
-      <c r="L29" s="5">
-        <v>0</v>
-      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="7">
@@ -1577,24 +1229,12 @@
       <c r="F30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <v>0</v>
-      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="7">
@@ -1615,24 +1255,12 @@
       <c r="F31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0</v>
-      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="7">
@@ -1653,24 +1281,12 @@
       <c r="F32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
-        <v>1</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="7">
@@ -1691,24 +1307,12 @@
       <c r="F33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0</v>
-      </c>
-      <c r="K33" s="5">
-        <v>0</v>
-      </c>
-      <c r="L33" s="5">
-        <v>0</v>
-      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="7">
@@ -1729,24 +1333,12 @@
       <c r="F34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
-        <v>1</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0</v>
-      </c>
-      <c r="K34" s="5">
-        <v>0</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0</v>
-      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="7">
@@ -1767,24 +1359,12 @@
       <c r="F35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5">
-        <v>1</v>
-      </c>
-      <c r="I35" s="5">
-        <v>0</v>
-      </c>
-      <c r="J35" s="5">
-        <v>0</v>
-      </c>
-      <c r="K35" s="5">
-        <v>0</v>
-      </c>
-      <c r="L35" s="5">
-        <v>0</v>
-      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="7">
@@ -1805,24 +1385,12 @@
       <c r="F36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="5">
-        <v>0</v>
-      </c>
-      <c r="H36" s="5">
-        <v>1</v>
-      </c>
-      <c r="I36" s="5">
-        <v>0</v>
-      </c>
-      <c r="J36" s="5">
-        <v>0</v>
-      </c>
-      <c r="K36" s="5">
-        <v>0</v>
-      </c>
-      <c r="L36" s="5">
-        <v>0</v>
-      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="7">
@@ -1843,24 +1411,12 @@
       <c r="F37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="5">
-        <v>0</v>
-      </c>
-      <c r="H37" s="5">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5">
-        <v>0</v>
-      </c>
-      <c r="J37" s="5">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5">
-        <v>0</v>
-      </c>
-      <c r="L37" s="5">
-        <v>0</v>
-      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="7">
@@ -1881,24 +1437,12 @@
       <c r="F38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="5">
-        <v>0</v>
-      </c>
-      <c r="H38" s="5">
-        <v>1</v>
-      </c>
-      <c r="I38" s="5">
-        <v>0</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5">
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="7">
@@ -1919,24 +1463,12 @@
       <c r="F39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
-      <c r="H39" s="5">
-        <v>1</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="7">
@@ -1957,24 +1489,12 @@
       <c r="F40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-      <c r="H40" s="5">
-        <v>1</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5">
-        <v>0</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0</v>
-      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="7">
@@ -1995,24 +1515,12 @@
       <c r="F41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5">
-        <v>1</v>
-      </c>
-      <c r="I41" s="5">
-        <v>0</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5">
-        <v>0</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0</v>
-      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="7">
@@ -2033,24 +1541,12 @@
       <c r="F42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
-        <v>1</v>
-      </c>
-      <c r="I42" s="5">
-        <v>0</v>
-      </c>
-      <c r="J42" s="5">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5">
-        <v>0</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0</v>
-      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="7">
@@ -2071,24 +1567,12 @@
       <c r="F43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5">
-        <v>1</v>
-      </c>
-      <c r="I43" s="5">
-        <v>0</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5">
-        <v>0</v>
-      </c>
-      <c r="L43" s="5">
-        <v>0</v>
-      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="7">
@@ -2109,24 +1593,12 @@
       <c r="F44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5">
-        <v>1</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5">
-        <v>0</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0</v>
-      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="7">
@@ -2147,24 +1619,12 @@
       <c r="F45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="5">
-        <v>0</v>
-      </c>
-      <c r="H45" s="5">
-        <v>1</v>
-      </c>
-      <c r="I45" s="5">
-        <v>0</v>
-      </c>
-      <c r="J45" s="5">
-        <v>0</v>
-      </c>
-      <c r="K45" s="5">
-        <v>0</v>
-      </c>
-      <c r="L45" s="5">
-        <v>0</v>
-      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="7">
@@ -2185,24 +1645,12 @@
       <c r="F46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G46" s="5">
-        <v>0</v>
-      </c>
-      <c r="H46" s="5">
-        <v>1</v>
-      </c>
-      <c r="I46" s="5">
-        <v>0</v>
-      </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="5">
-        <v>0</v>
-      </c>
-      <c r="L46" s="5">
-        <v>0</v>
-      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="7">
@@ -2223,24 +1671,12 @@
       <c r="F47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <v>1</v>
-      </c>
-      <c r="I47" s="5">
-        <v>0</v>
-      </c>
-      <c r="J47" s="5">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0</v>
-      </c>
-      <c r="L47" s="5">
-        <v>0</v>
-      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="7">
@@ -2261,24 +1697,12 @@
       <c r="F48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="5">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
-        <v>1</v>
-      </c>
-      <c r="I48" s="5">
-        <v>0</v>
-      </c>
-      <c r="J48" s="5">
-        <v>0</v>
-      </c>
-      <c r="K48" s="5">
-        <v>0</v>
-      </c>
-      <c r="L48" s="5">
-        <v>0</v>
-      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="7">
@@ -2299,24 +1723,12 @@
       <c r="F49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>1</v>
-      </c>
-      <c r="I49" s="5">
-        <v>0</v>
-      </c>
-      <c r="J49" s="5">
-        <v>0</v>
-      </c>
-      <c r="K49" s="5">
-        <v>0</v>
-      </c>
-      <c r="L49" s="5">
-        <v>0</v>
-      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="7">
@@ -2337,24 +1749,12 @@
       <c r="F50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="5">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5">
-        <v>1</v>
-      </c>
-      <c r="I50" s="5">
-        <v>0</v>
-      </c>
-      <c r="J50" s="5">
-        <v>0</v>
-      </c>
-      <c r="K50" s="5">
-        <v>0</v>
-      </c>
-      <c r="L50" s="5">
-        <v>0</v>
-      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="7">
@@ -2375,24 +1775,12 @@
       <c r="F51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
-      <c r="H51" s="5">
-        <v>1</v>
-      </c>
-      <c r="I51" s="5">
-        <v>0</v>
-      </c>
-      <c r="J51" s="5">
-        <v>0</v>
-      </c>
-      <c r="K51" s="5">
-        <v>0</v>
-      </c>
-      <c r="L51" s="5">
-        <v>0</v>
-      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="7">
@@ -2413,24 +1801,12 @@
       <c r="F52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="5">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5">
-        <v>1</v>
-      </c>
-      <c r="I52" s="5">
-        <v>0</v>
-      </c>
-      <c r="J52" s="5">
-        <v>0</v>
-      </c>
-      <c r="K52" s="5">
-        <v>0</v>
-      </c>
-      <c r="L52" s="5">
-        <v>0</v>
-      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="7">
@@ -2451,24 +1827,12 @@
       <c r="F53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5">
-        <v>1</v>
-      </c>
-      <c r="I53" s="5">
-        <v>0</v>
-      </c>
-      <c r="J53" s="5">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5">
-        <v>0</v>
-      </c>
-      <c r="L53" s="5">
-        <v>0</v>
-      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="7">
@@ -2489,24 +1853,12 @@
       <c r="F54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="5">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5">
-        <v>1</v>
-      </c>
-      <c r="I54" s="5">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5">
-        <v>0</v>
-      </c>
-      <c r="K54" s="5">
-        <v>0</v>
-      </c>
-      <c r="L54" s="5">
-        <v>0</v>
-      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="7">
@@ -2527,24 +1879,12 @@
       <c r="F55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="5">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0</v>
-      </c>
-      <c r="I55" s="5">
-        <v>1</v>
-      </c>
-      <c r="J55" s="5">
-        <v>0</v>
-      </c>
-      <c r="K55" s="5">
-        <v>0</v>
-      </c>
-      <c r="L55" s="5">
-        <v>0</v>
-      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="7">
@@ -2565,24 +1905,12 @@
       <c r="F56" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="5">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5">
-        <v>0</v>
-      </c>
-      <c r="I56" s="5">
-        <v>1</v>
-      </c>
-      <c r="J56" s="5">
-        <v>0</v>
-      </c>
-      <c r="K56" s="5">
-        <v>0</v>
-      </c>
-      <c r="L56" s="5">
-        <v>0</v>
-      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="7">
@@ -2603,24 +1931,12 @@
       <c r="F57" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="5">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5">
-        <v>0</v>
-      </c>
-      <c r="I57" s="5">
-        <v>1</v>
-      </c>
-      <c r="J57" s="5">
-        <v>0</v>
-      </c>
-      <c r="K57" s="5">
-        <v>0</v>
-      </c>
-      <c r="L57" s="5">
-        <v>0</v>
-      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="7">
@@ -2641,24 +1957,12 @@
       <c r="F58" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="5">
-        <v>0</v>
-      </c>
-      <c r="H58" s="5">
-        <v>0</v>
-      </c>
-      <c r="I58" s="5">
-        <v>1</v>
-      </c>
-      <c r="J58" s="5">
-        <v>0</v>
-      </c>
-      <c r="K58" s="5">
-        <v>0</v>
-      </c>
-      <c r="L58" s="5">
-        <v>0</v>
-      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="7">
@@ -2679,24 +1983,12 @@
       <c r="F59" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="5">
-        <v>0</v>
-      </c>
-      <c r="H59" s="5">
-        <v>0</v>
-      </c>
-      <c r="I59" s="5">
-        <v>1</v>
-      </c>
-      <c r="J59" s="5">
-        <v>0</v>
-      </c>
-      <c r="K59" s="5">
-        <v>0</v>
-      </c>
-      <c r="L59" s="5">
-        <v>0</v>
-      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="7">
@@ -2717,24 +2009,12 @@
       <c r="F60" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="5">
-        <v>0</v>
-      </c>
-      <c r="H60" s="5">
-        <v>0</v>
-      </c>
-      <c r="I60" s="5">
-        <v>1</v>
-      </c>
-      <c r="J60" s="5">
-        <v>0</v>
-      </c>
-      <c r="K60" s="5">
-        <v>0</v>
-      </c>
-      <c r="L60" s="5">
-        <v>0</v>
-      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="7">
@@ -2755,24 +2035,12 @@
       <c r="F61" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="5">
-        <v>0</v>
-      </c>
-      <c r="H61" s="5">
-        <v>0</v>
-      </c>
-      <c r="I61" s="5">
-        <v>1</v>
-      </c>
-      <c r="J61" s="5">
-        <v>0</v>
-      </c>
-      <c r="K61" s="5">
-        <v>0</v>
-      </c>
-      <c r="L61" s="5">
-        <v>0</v>
-      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="7">
@@ -2793,24 +2061,12 @@
       <c r="F62" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="5">
-        <v>0</v>
-      </c>
-      <c r="H62" s="5">
-        <v>0</v>
-      </c>
-      <c r="I62" s="5">
-        <v>1</v>
-      </c>
-      <c r="J62" s="5">
-        <v>0</v>
-      </c>
-      <c r="K62" s="5">
-        <v>0</v>
-      </c>
-      <c r="L62" s="5">
-        <v>0</v>
-      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="7">
@@ -2831,24 +2087,12 @@
       <c r="F63" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="5">
-        <v>0</v>
-      </c>
-      <c r="H63" s="5">
-        <v>0</v>
-      </c>
-      <c r="I63" s="5">
-        <v>1</v>
-      </c>
-      <c r="J63" s="5">
-        <v>0</v>
-      </c>
-      <c r="K63" s="5">
-        <v>0</v>
-      </c>
-      <c r="L63" s="5">
-        <v>0</v>
-      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="7">
@@ -2869,24 +2113,12 @@
       <c r="F64" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="5">
-        <v>0</v>
-      </c>
-      <c r="H64" s="5">
-        <v>0</v>
-      </c>
-      <c r="I64" s="5">
-        <v>1</v>
-      </c>
-      <c r="J64" s="5">
-        <v>0</v>
-      </c>
-      <c r="K64" s="5">
-        <v>0</v>
-      </c>
-      <c r="L64" s="5">
-        <v>0</v>
-      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="7">
@@ -2907,24 +2139,12 @@
       <c r="F65" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="5">
-        <v>0</v>
-      </c>
-      <c r="H65" s="5">
-        <v>0</v>
-      </c>
-      <c r="I65" s="5">
-        <v>1</v>
-      </c>
-      <c r="J65" s="5">
-        <v>0</v>
-      </c>
-      <c r="K65" s="5">
-        <v>0</v>
-      </c>
-      <c r="L65" s="5">
-        <v>0</v>
-      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="7">
@@ -2945,24 +2165,12 @@
       <c r="F66" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="5">
-        <v>0</v>
-      </c>
-      <c r="H66" s="5">
-        <v>0</v>
-      </c>
-      <c r="I66" s="5">
-        <v>1</v>
-      </c>
-      <c r="J66" s="5">
-        <v>0</v>
-      </c>
-      <c r="K66" s="5">
-        <v>0</v>
-      </c>
-      <c r="L66" s="5">
-        <v>0</v>
-      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="7">
@@ -2983,24 +2191,12 @@
       <c r="F67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="5">
-        <v>0</v>
-      </c>
-      <c r="H67" s="5">
-        <v>0</v>
-      </c>
-      <c r="I67" s="5">
-        <v>1</v>
-      </c>
-      <c r="J67" s="5">
-        <v>0</v>
-      </c>
-      <c r="K67" s="5">
-        <v>0</v>
-      </c>
-      <c r="L67" s="5">
-        <v>0</v>
-      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="7">
@@ -3021,24 +2217,12 @@
       <c r="F68" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="5">
-        <v>0</v>
-      </c>
-      <c r="H68" s="5">
-        <v>0</v>
-      </c>
-      <c r="I68" s="5">
-        <v>1</v>
-      </c>
-      <c r="J68" s="5">
-        <v>0</v>
-      </c>
-      <c r="K68" s="5">
-        <v>0</v>
-      </c>
-      <c r="L68" s="5">
-        <v>0</v>
-      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="7">
@@ -3059,24 +2243,12 @@
       <c r="F69" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="5">
-        <v>0</v>
-      </c>
-      <c r="H69" s="5">
-        <v>0</v>
-      </c>
-      <c r="I69" s="5">
-        <v>1</v>
-      </c>
-      <c r="J69" s="5">
-        <v>0</v>
-      </c>
-      <c r="K69" s="5">
-        <v>0</v>
-      </c>
-      <c r="L69" s="5">
-        <v>0</v>
-      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="7">
@@ -3097,24 +2269,12 @@
       <c r="F70" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="5">
-        <v>0</v>
-      </c>
-      <c r="H70" s="5">
-        <v>0</v>
-      </c>
-      <c r="I70" s="5">
-        <v>1</v>
-      </c>
-      <c r="J70" s="5">
-        <v>0</v>
-      </c>
-      <c r="K70" s="5">
-        <v>0</v>
-      </c>
-      <c r="L70" s="5">
-        <v>0</v>
-      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="7">
@@ -3135,24 +2295,12 @@
       <c r="F71" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="5">
-        <v>0</v>
-      </c>
-      <c r="H71" s="5">
-        <v>0</v>
-      </c>
-      <c r="I71" s="5">
-        <v>1</v>
-      </c>
-      <c r="J71" s="5">
-        <v>0</v>
-      </c>
-      <c r="K71" s="5">
-        <v>0</v>
-      </c>
-      <c r="L71" s="5">
-        <v>0</v>
-      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="7">
@@ -3173,24 +2321,12 @@
       <c r="F72" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="5">
-        <v>0</v>
-      </c>
-      <c r="H72" s="5">
-        <v>0</v>
-      </c>
-      <c r="I72" s="5">
-        <v>1</v>
-      </c>
-      <c r="J72" s="5">
-        <v>0</v>
-      </c>
-      <c r="K72" s="5">
-        <v>0</v>
-      </c>
-      <c r="L72" s="5">
-        <v>0</v>
-      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="7">
@@ -3211,24 +2347,12 @@
       <c r="F73" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="5">
-        <v>0</v>
-      </c>
-      <c r="H73" s="5">
-        <v>0</v>
-      </c>
-      <c r="I73" s="5">
-        <v>1</v>
-      </c>
-      <c r="J73" s="5">
-        <v>0</v>
-      </c>
-      <c r="K73" s="5">
-        <v>0</v>
-      </c>
-      <c r="L73" s="5">
-        <v>0</v>
-      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="7">
@@ -3249,24 +2373,12 @@
       <c r="F74" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="5">
-        <v>0</v>
-      </c>
-      <c r="H74" s="5">
-        <v>0</v>
-      </c>
-      <c r="I74" s="5">
-        <v>1</v>
-      </c>
-      <c r="J74" s="5">
-        <v>0</v>
-      </c>
-      <c r="K74" s="5">
-        <v>0</v>
-      </c>
-      <c r="L74" s="5">
-        <v>0</v>
-      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="7">
@@ -3287,24 +2399,12 @@
       <c r="F75" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G75" s="5">
-        <v>0</v>
-      </c>
-      <c r="H75" s="5">
-        <v>0</v>
-      </c>
-      <c r="I75" s="5">
-        <v>1</v>
-      </c>
-      <c r="J75" s="5">
-        <v>0</v>
-      </c>
-      <c r="K75" s="5">
-        <v>0</v>
-      </c>
-      <c r="L75" s="5">
-        <v>0</v>
-      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="7">
@@ -3325,24 +2425,12 @@
       <c r="F76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="5">
-        <v>0</v>
-      </c>
-      <c r="H76" s="5">
-        <v>0</v>
-      </c>
-      <c r="I76" s="5">
-        <v>1</v>
-      </c>
-      <c r="J76" s="5">
-        <v>0</v>
-      </c>
-      <c r="K76" s="5">
-        <v>0</v>
-      </c>
-      <c r="L76" s="5">
-        <v>0</v>
-      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="7">
@@ -3363,24 +2451,12 @@
       <c r="F77" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="5">
-        <v>0</v>
-      </c>
-      <c r="H77" s="5">
-        <v>0</v>
-      </c>
-      <c r="I77" s="5">
-        <v>1</v>
-      </c>
-      <c r="J77" s="5">
-        <v>0</v>
-      </c>
-      <c r="K77" s="5">
-        <v>0</v>
-      </c>
-      <c r="L77" s="5">
-        <v>0</v>
-      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="7">
@@ -3401,24 +2477,12 @@
       <c r="F78" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="5">
-        <v>0</v>
-      </c>
-      <c r="H78" s="5">
-        <v>0</v>
-      </c>
-      <c r="I78" s="5">
-        <v>1</v>
-      </c>
-      <c r="J78" s="5">
-        <v>0</v>
-      </c>
-      <c r="K78" s="5">
-        <v>0</v>
-      </c>
-      <c r="L78" s="5">
-        <v>0</v>
-      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="7">
@@ -3439,24 +2503,12 @@
       <c r="F79" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="5">
-        <v>0</v>
-      </c>
-      <c r="H79" s="5">
-        <v>0</v>
-      </c>
-      <c r="I79" s="5">
-        <v>1</v>
-      </c>
-      <c r="J79" s="5">
-        <v>0</v>
-      </c>
-      <c r="K79" s="5">
-        <v>0</v>
-      </c>
-      <c r="L79" s="5">
-        <v>0</v>
-      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="7">
@@ -3477,24 +2529,12 @@
       <c r="F80" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="5">
-        <v>0</v>
-      </c>
-      <c r="H80" s="5">
-        <v>0</v>
-      </c>
-      <c r="I80" s="5">
-        <v>1</v>
-      </c>
-      <c r="J80" s="5">
-        <v>0</v>
-      </c>
-      <c r="K80" s="5">
-        <v>0</v>
-      </c>
-      <c r="L80" s="5">
-        <v>0</v>
-      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="7">
@@ -3515,24 +2555,12 @@
       <c r="F81" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="5">
-        <v>0</v>
-      </c>
-      <c r="H81" s="5">
-        <v>0</v>
-      </c>
-      <c r="I81" s="5">
-        <v>1</v>
-      </c>
-      <c r="J81" s="5">
-        <v>0</v>
-      </c>
-      <c r="K81" s="5">
-        <v>0</v>
-      </c>
-      <c r="L81" s="5">
-        <v>0</v>
-      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="7">
@@ -3553,24 +2581,12 @@
       <c r="F82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="5">
-        <v>0</v>
-      </c>
-      <c r="H82" s="5">
-        <v>0</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1</v>
-      </c>
-      <c r="J82" s="5">
-        <v>0</v>
-      </c>
-      <c r="K82" s="5">
-        <v>0</v>
-      </c>
-      <c r="L82" s="5">
-        <v>0</v>
-      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="7">
@@ -3591,24 +2607,12 @@
       <c r="F83" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="5">
-        <v>0</v>
-      </c>
-      <c r="H83" s="5">
-        <v>0</v>
-      </c>
-      <c r="I83" s="5">
-        <v>1</v>
-      </c>
-      <c r="J83" s="5">
-        <v>0</v>
-      </c>
-      <c r="K83" s="5">
-        <v>0</v>
-      </c>
-      <c r="L83" s="5">
-        <v>0</v>
-      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="7">
@@ -3629,24 +2633,12 @@
       <c r="F84" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="5">
-        <v>0</v>
-      </c>
-      <c r="H84" s="5">
-        <v>0</v>
-      </c>
-      <c r="I84" s="5">
-        <v>1</v>
-      </c>
-      <c r="J84" s="5">
-        <v>0</v>
-      </c>
-      <c r="K84" s="5">
-        <v>0</v>
-      </c>
-      <c r="L84" s="5">
-        <v>0</v>
-      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="7">
@@ -3667,24 +2659,12 @@
       <c r="F85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G85" s="5">
-        <v>0</v>
-      </c>
-      <c r="H85" s="5">
-        <v>0</v>
-      </c>
-      <c r="I85" s="5">
-        <v>1</v>
-      </c>
-      <c r="J85" s="5">
-        <v>0</v>
-      </c>
-      <c r="K85" s="5">
-        <v>0</v>
-      </c>
-      <c r="L85" s="5">
-        <v>0</v>
-      </c>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="7">
@@ -3705,24 +2685,12 @@
       <c r="F86" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="5">
-        <v>0</v>
-      </c>
-      <c r="H86" s="5">
-        <v>0</v>
-      </c>
-      <c r="I86" s="5">
-        <v>1</v>
-      </c>
-      <c r="J86" s="5">
-        <v>0</v>
-      </c>
-      <c r="K86" s="5">
-        <v>0</v>
-      </c>
-      <c r="L86" s="5">
-        <v>0</v>
-      </c>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="7">
@@ -3743,24 +2711,12 @@
       <c r="F87" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="5">
-        <v>0</v>
-      </c>
-      <c r="H87" s="5">
-        <v>0</v>
-      </c>
-      <c r="I87" s="5">
-        <v>1</v>
-      </c>
-      <c r="J87" s="5">
-        <v>0</v>
-      </c>
-      <c r="K87" s="5">
-        <v>0</v>
-      </c>
-      <c r="L87" s="5">
-        <v>0</v>
-      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="7">
@@ -3781,24 +2737,12 @@
       <c r="F88" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="5">
-        <v>0</v>
-      </c>
-      <c r="H88" s="5">
-        <v>0</v>
-      </c>
-      <c r="I88" s="5">
-        <v>1</v>
-      </c>
-      <c r="J88" s="5">
-        <v>0</v>
-      </c>
-      <c r="K88" s="5">
-        <v>0</v>
-      </c>
-      <c r="L88" s="5">
-        <v>0</v>
-      </c>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="7">
@@ -3819,24 +2763,12 @@
       <c r="F89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="5">
-        <v>0</v>
-      </c>
-      <c r="H89" s="5">
-        <v>0</v>
-      </c>
-      <c r="I89" s="5">
-        <v>1</v>
-      </c>
-      <c r="J89" s="5">
-        <v>0</v>
-      </c>
-      <c r="K89" s="5">
-        <v>0</v>
-      </c>
-      <c r="L89" s="5">
-        <v>0</v>
-      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="7">
@@ -3857,24 +2789,12 @@
       <c r="F90" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="5">
-        <v>0</v>
-      </c>
-      <c r="H90" s="5">
-        <v>0</v>
-      </c>
-      <c r="I90" s="5">
-        <v>1</v>
-      </c>
-      <c r="J90" s="5">
-        <v>0</v>
-      </c>
-      <c r="K90" s="5">
-        <v>0</v>
-      </c>
-      <c r="L90" s="5">
-        <v>0</v>
-      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="7">
@@ -3895,24 +2815,12 @@
       <c r="F91" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="5">
-        <v>0</v>
-      </c>
-      <c r="H91" s="5">
-        <v>0</v>
-      </c>
-      <c r="I91" s="5">
-        <v>1</v>
-      </c>
-      <c r="J91" s="5">
-        <v>0</v>
-      </c>
-      <c r="K91" s="5">
-        <v>0</v>
-      </c>
-      <c r="L91" s="5">
-        <v>0</v>
-      </c>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="7">
@@ -3933,24 +2841,12 @@
       <c r="F92" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="5">
-        <v>0</v>
-      </c>
-      <c r="H92" s="5">
-        <v>0</v>
-      </c>
-      <c r="I92" s="5">
-        <v>1</v>
-      </c>
-      <c r="J92" s="5">
-        <v>0</v>
-      </c>
-      <c r="K92" s="5">
-        <v>0</v>
-      </c>
-      <c r="L92" s="5">
-        <v>0</v>
-      </c>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="7">
@@ -3971,24 +2867,12 @@
       <c r="F93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="5">
-        <v>0</v>
-      </c>
-      <c r="H93" s="5">
-        <v>0</v>
-      </c>
-      <c r="I93" s="5">
-        <v>1</v>
-      </c>
-      <c r="J93" s="5">
-        <v>0</v>
-      </c>
-      <c r="K93" s="5">
-        <v>0</v>
-      </c>
-      <c r="L93" s="5">
-        <v>0</v>
-      </c>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="7">
@@ -4009,24 +2893,12 @@
       <c r="F94" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="5">
-        <v>0</v>
-      </c>
-      <c r="H94" s="5">
-        <v>0</v>
-      </c>
-      <c r="I94" s="5">
-        <v>1</v>
-      </c>
-      <c r="J94" s="5">
-        <v>0</v>
-      </c>
-      <c r="K94" s="5">
-        <v>0</v>
-      </c>
-      <c r="L94" s="5">
-        <v>0</v>
-      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="7">
@@ -4047,24 +2919,12 @@
       <c r="F95" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="5">
-        <v>0</v>
-      </c>
-      <c r="H95" s="5">
-        <v>0</v>
-      </c>
-      <c r="I95" s="5">
-        <v>1</v>
-      </c>
-      <c r="J95" s="5">
-        <v>0</v>
-      </c>
-      <c r="K95" s="5">
-        <v>0</v>
-      </c>
-      <c r="L95" s="5">
-        <v>0</v>
-      </c>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="7">
@@ -4085,24 +2945,12 @@
       <c r="F96" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="5">
-        <v>0</v>
-      </c>
-      <c r="H96" s="5">
-        <v>0</v>
-      </c>
-      <c r="I96" s="5">
-        <v>1</v>
-      </c>
-      <c r="J96" s="5">
-        <v>0</v>
-      </c>
-      <c r="K96" s="5">
-        <v>0</v>
-      </c>
-      <c r="L96" s="5">
-        <v>0</v>
-      </c>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="7">
@@ -4123,24 +2971,12 @@
       <c r="F97" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="5">
-        <v>0</v>
-      </c>
-      <c r="H97" s="5">
-        <v>0</v>
-      </c>
-      <c r="I97" s="5">
-        <v>1</v>
-      </c>
-      <c r="J97" s="5">
-        <v>0</v>
-      </c>
-      <c r="K97" s="5">
-        <v>0</v>
-      </c>
-      <c r="L97" s="5">
-        <v>0</v>
-      </c>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="7">
@@ -4161,24 +2997,12 @@
       <c r="F98" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="5">
-        <v>0</v>
-      </c>
-      <c r="H98" s="5">
-        <v>0</v>
-      </c>
-      <c r="I98" s="5">
-        <v>1</v>
-      </c>
-      <c r="J98" s="5">
-        <v>0</v>
-      </c>
-      <c r="K98" s="5">
-        <v>0</v>
-      </c>
-      <c r="L98" s="5">
-        <v>0</v>
-      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="7">
@@ -4199,24 +3023,12 @@
       <c r="F99" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="5">
-        <v>0</v>
-      </c>
-      <c r="H99" s="5">
-        <v>0</v>
-      </c>
-      <c r="I99" s="5">
-        <v>1</v>
-      </c>
-      <c r="J99" s="5">
-        <v>0</v>
-      </c>
-      <c r="K99" s="5">
-        <v>0</v>
-      </c>
-      <c r="L99" s="5">
-        <v>0</v>
-      </c>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="7">
@@ -4237,24 +3049,12 @@
       <c r="F100" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="5">
-        <v>0</v>
-      </c>
-      <c r="H100" s="5">
-        <v>0</v>
-      </c>
-      <c r="I100" s="5">
-        <v>1</v>
-      </c>
-      <c r="J100" s="5">
-        <v>0</v>
-      </c>
-      <c r="K100" s="5">
-        <v>0</v>
-      </c>
-      <c r="L100" s="5">
-        <v>0</v>
-      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="7">
@@ -4275,24 +3075,12 @@
       <c r="F101" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="5">
-        <v>0</v>
-      </c>
-      <c r="H101" s="5">
-        <v>0</v>
-      </c>
-      <c r="I101" s="5">
-        <v>1</v>
-      </c>
-      <c r="J101" s="5">
-        <v>0</v>
-      </c>
-      <c r="K101" s="5">
-        <v>0</v>
-      </c>
-      <c r="L101" s="5">
-        <v>0</v>
-      </c>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="7">
@@ -4313,24 +3101,12 @@
       <c r="F102" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="5">
-        <v>0</v>
-      </c>
-      <c r="H102" s="5">
-        <v>0</v>
-      </c>
-      <c r="I102" s="5">
-        <v>1</v>
-      </c>
-      <c r="J102" s="5">
-        <v>0</v>
-      </c>
-      <c r="K102" s="5">
-        <v>0</v>
-      </c>
-      <c r="L102" s="5">
-        <v>0</v>
-      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="7">
@@ -4351,24 +3127,12 @@
       <c r="F103" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G103" s="5">
-        <v>0</v>
-      </c>
-      <c r="H103" s="5">
-        <v>0</v>
-      </c>
-      <c r="I103" s="5">
-        <v>1</v>
-      </c>
-      <c r="J103" s="5">
-        <v>0</v>
-      </c>
-      <c r="K103" s="5">
-        <v>0</v>
-      </c>
-      <c r="L103" s="5">
-        <v>0</v>
-      </c>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="7">
@@ -4389,24 +3153,12 @@
       <c r="F104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G104" s="5">
-        <v>0</v>
-      </c>
-      <c r="H104" s="5">
-        <v>0</v>
-      </c>
-      <c r="I104" s="5">
-        <v>1</v>
-      </c>
-      <c r="J104" s="5">
-        <v>0</v>
-      </c>
-      <c r="K104" s="5">
-        <v>0</v>
-      </c>
-      <c r="L104" s="5">
-        <v>0</v>
-      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="7">
@@ -4427,24 +3179,12 @@
       <c r="F105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="5">
-        <v>0</v>
-      </c>
-      <c r="H105" s="5">
-        <v>0</v>
-      </c>
-      <c r="I105" s="5">
-        <v>1</v>
-      </c>
-      <c r="J105" s="5">
-        <v>0</v>
-      </c>
-      <c r="K105" s="5">
-        <v>0</v>
-      </c>
-      <c r="L105" s="5">
-        <v>0</v>
-      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="7">
@@ -4465,24 +3205,12 @@
       <c r="F106" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="5">
-        <v>0</v>
-      </c>
-      <c r="H106" s="5">
-        <v>0</v>
-      </c>
-      <c r="I106" s="5">
-        <v>1</v>
-      </c>
-      <c r="J106" s="5">
-        <v>0</v>
-      </c>
-      <c r="K106" s="5">
-        <v>0</v>
-      </c>
-      <c r="L106" s="5">
-        <v>0</v>
-      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="7">
@@ -4503,24 +3231,12 @@
       <c r="F107" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G107" s="5">
-        <v>0</v>
-      </c>
-      <c r="H107" s="5">
-        <v>0</v>
-      </c>
-      <c r="I107" s="5">
-        <v>1</v>
-      </c>
-      <c r="J107" s="5">
-        <v>0</v>
-      </c>
-      <c r="K107" s="5">
-        <v>0</v>
-      </c>
-      <c r="L107" s="5">
-        <v>0</v>
-      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="7">
@@ -4541,24 +3257,12 @@
       <c r="F108" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G108" s="5">
-        <v>0</v>
-      </c>
-      <c r="H108" s="5">
-        <v>0</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1</v>
-      </c>
-      <c r="J108" s="5">
-        <v>0</v>
-      </c>
-      <c r="K108" s="5">
-        <v>0</v>
-      </c>
-      <c r="L108" s="5">
-        <v>0</v>
-      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="7">
@@ -4579,24 +3283,12 @@
       <c r="F109" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G109" s="5">
-        <v>0</v>
-      </c>
-      <c r="H109" s="5">
-        <v>0</v>
-      </c>
-      <c r="I109" s="5">
-        <v>1</v>
-      </c>
-      <c r="J109" s="5">
-        <v>0</v>
-      </c>
-      <c r="K109" s="5">
-        <v>0</v>
-      </c>
-      <c r="L109" s="5">
-        <v>0</v>
-      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="7">
@@ -4617,24 +3309,12 @@
       <c r="F110" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G110" s="5">
-        <v>0</v>
-      </c>
-      <c r="H110" s="5">
-        <v>0</v>
-      </c>
-      <c r="I110" s="5">
-        <v>1</v>
-      </c>
-      <c r="J110" s="5">
-        <v>0</v>
-      </c>
-      <c r="K110" s="5">
-        <v>0</v>
-      </c>
-      <c r="L110" s="5">
-        <v>0</v>
-      </c>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="7">
@@ -4655,24 +3335,12 @@
       <c r="F111" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="5">
-        <v>0</v>
-      </c>
-      <c r="H111" s="5">
-        <v>0</v>
-      </c>
-      <c r="I111" s="5">
-        <v>1</v>
-      </c>
-      <c r="J111" s="5">
-        <v>0</v>
-      </c>
-      <c r="K111" s="5">
-        <v>0</v>
-      </c>
-      <c r="L111" s="5">
-        <v>0</v>
-      </c>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="7">
@@ -4693,24 +3361,12 @@
       <c r="F112" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G112" s="5">
-        <v>0</v>
-      </c>
-      <c r="H112" s="5">
-        <v>0</v>
-      </c>
-      <c r="I112" s="5">
-        <v>1</v>
-      </c>
-      <c r="J112" s="5">
-        <v>0</v>
-      </c>
-      <c r="K112" s="5">
-        <v>0</v>
-      </c>
-      <c r="L112" s="5">
-        <v>0</v>
-      </c>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="7">
@@ -4731,24 +3387,12 @@
       <c r="F113" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G113" s="5">
-        <v>0</v>
-      </c>
-      <c r="H113" s="5">
-        <v>0</v>
-      </c>
-      <c r="I113" s="5">
-        <v>0</v>
-      </c>
-      <c r="J113" s="5">
-        <v>1</v>
-      </c>
-      <c r="K113" s="5">
-        <v>0</v>
-      </c>
-      <c r="L113" s="5">
-        <v>0</v>
-      </c>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="7">
@@ -4769,24 +3413,12 @@
       <c r="F114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G114" s="5">
-        <v>0</v>
-      </c>
-      <c r="H114" s="5">
-        <v>0</v>
-      </c>
-      <c r="I114" s="5">
-        <v>0</v>
-      </c>
-      <c r="J114" s="5">
-        <v>1</v>
-      </c>
-      <c r="K114" s="5">
-        <v>0</v>
-      </c>
-      <c r="L114" s="5">
-        <v>0</v>
-      </c>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="7">
@@ -4807,24 +3439,12 @@
       <c r="F115" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G115" s="5">
-        <v>0</v>
-      </c>
-      <c r="H115" s="5">
-        <v>0</v>
-      </c>
-      <c r="I115" s="5">
-        <v>0</v>
-      </c>
-      <c r="J115" s="5">
-        <v>1</v>
-      </c>
-      <c r="K115" s="5">
-        <v>0</v>
-      </c>
-      <c r="L115" s="5">
-        <v>0</v>
-      </c>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="7">
@@ -4845,24 +3465,12 @@
       <c r="F116" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G116" s="5">
-        <v>0</v>
-      </c>
-      <c r="H116" s="5">
-        <v>0</v>
-      </c>
-      <c r="I116" s="5">
-        <v>0</v>
-      </c>
-      <c r="J116" s="5">
-        <v>1</v>
-      </c>
-      <c r="K116" s="5">
-        <v>0</v>
-      </c>
-      <c r="L116" s="5">
-        <v>0</v>
-      </c>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="7">
@@ -4883,24 +3491,12 @@
       <c r="F117" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G117" s="5">
-        <v>0</v>
-      </c>
-      <c r="H117" s="5">
-        <v>0</v>
-      </c>
-      <c r="I117" s="5">
-        <v>0</v>
-      </c>
-      <c r="J117" s="5">
-        <v>1</v>
-      </c>
-      <c r="K117" s="5">
-        <v>0</v>
-      </c>
-      <c r="L117" s="5">
-        <v>0</v>
-      </c>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="7">
@@ -4921,24 +3517,12 @@
       <c r="F118" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G118" s="5">
-        <v>0</v>
-      </c>
-      <c r="H118" s="5">
-        <v>0</v>
-      </c>
-      <c r="I118" s="5">
-        <v>0</v>
-      </c>
-      <c r="J118" s="5">
-        <v>1</v>
-      </c>
-      <c r="K118" s="5">
-        <v>0</v>
-      </c>
-      <c r="L118" s="5">
-        <v>0</v>
-      </c>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="7">
@@ -4959,24 +3543,12 @@
       <c r="F119" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G119" s="5">
-        <v>0</v>
-      </c>
-      <c r="H119" s="5">
-        <v>0</v>
-      </c>
-      <c r="I119" s="5">
-        <v>0</v>
-      </c>
-      <c r="J119" s="5">
-        <v>1</v>
-      </c>
-      <c r="K119" s="5">
-        <v>0</v>
-      </c>
-      <c r="L119" s="5">
-        <v>0</v>
-      </c>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="7">
@@ -4997,24 +3569,12 @@
       <c r="F120" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G120" s="5">
-        <v>0</v>
-      </c>
-      <c r="H120" s="5">
-        <v>0</v>
-      </c>
-      <c r="I120" s="5">
-        <v>0</v>
-      </c>
-      <c r="J120" s="5">
-        <v>1</v>
-      </c>
-      <c r="K120" s="5">
-        <v>0</v>
-      </c>
-      <c r="L120" s="5">
-        <v>0</v>
-      </c>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="7">
@@ -5035,24 +3595,12 @@
       <c r="F121" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G121" s="5">
-        <v>0</v>
-      </c>
-      <c r="H121" s="5">
-        <v>0</v>
-      </c>
-      <c r="I121" s="5">
-        <v>0</v>
-      </c>
-      <c r="J121" s="5">
-        <v>1</v>
-      </c>
-      <c r="K121" s="5">
-        <v>0</v>
-      </c>
-      <c r="L121" s="5">
-        <v>0</v>
-      </c>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="7">
@@ -5073,24 +3621,12 @@
       <c r="F122" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="5">
-        <v>0</v>
-      </c>
-      <c r="H122" s="5">
-        <v>0</v>
-      </c>
-      <c r="I122" s="5">
-        <v>0</v>
-      </c>
-      <c r="J122" s="5">
-        <v>1</v>
-      </c>
-      <c r="K122" s="5">
-        <v>0</v>
-      </c>
-      <c r="L122" s="5">
-        <v>0</v>
-      </c>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="7">
@@ -5111,24 +3647,12 @@
       <c r="F123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G123" s="5">
-        <v>0</v>
-      </c>
-      <c r="H123" s="5">
-        <v>0</v>
-      </c>
-      <c r="I123" s="5">
-        <v>0</v>
-      </c>
-      <c r="J123" s="5">
-        <v>1</v>
-      </c>
-      <c r="K123" s="5">
-        <v>0</v>
-      </c>
-      <c r="L123" s="5">
-        <v>0</v>
-      </c>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="7">
@@ -5149,24 +3673,12 @@
       <c r="F124" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G124" s="5">
-        <v>0</v>
-      </c>
-      <c r="H124" s="5">
-        <v>0</v>
-      </c>
-      <c r="I124" s="5">
-        <v>0</v>
-      </c>
-      <c r="J124" s="5">
-        <v>1</v>
-      </c>
-      <c r="K124" s="5">
-        <v>0</v>
-      </c>
-      <c r="L124" s="5">
-        <v>0</v>
-      </c>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="7">
@@ -5187,24 +3699,12 @@
       <c r="F125" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G125" s="5">
-        <v>0</v>
-      </c>
-      <c r="H125" s="5">
-        <v>0</v>
-      </c>
-      <c r="I125" s="5">
-        <v>0</v>
-      </c>
-      <c r="J125" s="5">
-        <v>1</v>
-      </c>
-      <c r="K125" s="5">
-        <v>0</v>
-      </c>
-      <c r="L125" s="5">
-        <v>0</v>
-      </c>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="7">
@@ -5225,24 +3725,12 @@
       <c r="F126" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G126" s="5">
-        <v>0</v>
-      </c>
-      <c r="H126" s="5">
-        <v>0</v>
-      </c>
-      <c r="I126" s="5">
-        <v>0</v>
-      </c>
-      <c r="J126" s="5">
-        <v>1</v>
-      </c>
-      <c r="K126" s="5">
-        <v>0</v>
-      </c>
-      <c r="L126" s="5">
-        <v>0</v>
-      </c>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="7">
@@ -5263,24 +3751,12 @@
       <c r="F127" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G127" s="5">
-        <v>0</v>
-      </c>
-      <c r="H127" s="5">
-        <v>0</v>
-      </c>
-      <c r="I127" s="5">
-        <v>0</v>
-      </c>
-      <c r="J127" s="5">
-        <v>1</v>
-      </c>
-      <c r="K127" s="5">
-        <v>0</v>
-      </c>
-      <c r="L127" s="5">
-        <v>0</v>
-      </c>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="7">
@@ -5301,24 +3777,12 @@
       <c r="F128" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G128" s="5">
-        <v>0</v>
-      </c>
-      <c r="H128" s="5">
-        <v>0</v>
-      </c>
-      <c r="I128" s="5">
-        <v>0</v>
-      </c>
-      <c r="J128" s="5">
-        <v>1</v>
-      </c>
-      <c r="K128" s="5">
-        <v>0</v>
-      </c>
-      <c r="L128" s="5">
-        <v>0</v>
-      </c>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="7">
@@ -5339,24 +3803,12 @@
       <c r="F129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G129" s="5">
-        <v>0</v>
-      </c>
-      <c r="H129" s="5">
-        <v>0</v>
-      </c>
-      <c r="I129" s="5">
-        <v>0</v>
-      </c>
-      <c r="J129" s="5">
-        <v>1</v>
-      </c>
-      <c r="K129" s="5">
-        <v>0</v>
-      </c>
-      <c r="L129" s="5">
-        <v>0</v>
-      </c>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="7">
@@ -5377,24 +3829,12 @@
       <c r="F130" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G130" s="5">
-        <v>0</v>
-      </c>
-      <c r="H130" s="5">
-        <v>0</v>
-      </c>
-      <c r="I130" s="5">
-        <v>0</v>
-      </c>
-      <c r="J130" s="5">
-        <v>1</v>
-      </c>
-      <c r="K130" s="5">
-        <v>0</v>
-      </c>
-      <c r="L130" s="5">
-        <v>0</v>
-      </c>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="7">
@@ -5415,24 +3855,12 @@
       <c r="F131" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G131" s="5">
-        <v>0</v>
-      </c>
-      <c r="H131" s="5">
-        <v>0</v>
-      </c>
-      <c r="I131" s="5">
-        <v>0</v>
-      </c>
-      <c r="J131" s="5">
-        <v>1</v>
-      </c>
-      <c r="K131" s="5">
-        <v>0</v>
-      </c>
-      <c r="L131" s="5">
-        <v>0</v>
-      </c>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="7">
@@ -5453,24 +3881,12 @@
       <c r="F132" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G132" s="5">
-        <v>0</v>
-      </c>
-      <c r="H132" s="5">
-        <v>0</v>
-      </c>
-      <c r="I132" s="5">
-        <v>0</v>
-      </c>
-      <c r="J132" s="5">
-        <v>1</v>
-      </c>
-      <c r="K132" s="5">
-        <v>0</v>
-      </c>
-      <c r="L132" s="5">
-        <v>0</v>
-      </c>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="7">
@@ -5491,24 +3907,12 @@
       <c r="F133" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G133" s="5">
-        <v>0</v>
-      </c>
-      <c r="H133" s="5">
-        <v>0</v>
-      </c>
-      <c r="I133" s="5">
-        <v>0</v>
-      </c>
-      <c r="J133" s="5">
-        <v>0</v>
-      </c>
-      <c r="K133" s="5">
-        <v>1</v>
-      </c>
-      <c r="L133" s="5">
-        <v>0</v>
-      </c>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="7">
@@ -5529,24 +3933,12 @@
       <c r="F134" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G134" s="5">
-        <v>0</v>
-      </c>
-      <c r="H134" s="5">
-        <v>0</v>
-      </c>
-      <c r="I134" s="5">
-        <v>0</v>
-      </c>
-      <c r="J134" s="5">
-        <v>0</v>
-      </c>
-      <c r="K134" s="5">
-        <v>1</v>
-      </c>
-      <c r="L134" s="5">
-        <v>0</v>
-      </c>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="7">
@@ -5567,24 +3959,12 @@
       <c r="F135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G135" s="5">
-        <v>0</v>
-      </c>
-      <c r="H135" s="5">
-        <v>0</v>
-      </c>
-      <c r="I135" s="5">
-        <v>0</v>
-      </c>
-      <c r="J135" s="5">
-        <v>0</v>
-      </c>
-      <c r="K135" s="5">
-        <v>1</v>
-      </c>
-      <c r="L135" s="5">
-        <v>0</v>
-      </c>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="7">
@@ -5605,24 +3985,12 @@
       <c r="F136" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G136" s="5">
-        <v>0</v>
-      </c>
-      <c r="H136" s="5">
-        <v>0</v>
-      </c>
-      <c r="I136" s="5">
-        <v>0</v>
-      </c>
-      <c r="J136" s="5">
-        <v>0</v>
-      </c>
-      <c r="K136" s="5">
-        <v>1</v>
-      </c>
-      <c r="L136" s="5">
-        <v>0</v>
-      </c>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="7">
@@ -5643,24 +4011,12 @@
       <c r="F137" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G137" s="5">
-        <v>0</v>
-      </c>
-      <c r="H137" s="5">
-        <v>0</v>
-      </c>
-      <c r="I137" s="5">
-        <v>0</v>
-      </c>
-      <c r="J137" s="5">
-        <v>0</v>
-      </c>
-      <c r="K137" s="5">
-        <v>1</v>
-      </c>
-      <c r="L137" s="5">
-        <v>0</v>
-      </c>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="7">
@@ -5681,24 +4037,12 @@
       <c r="F138" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G138" s="5">
-        <v>0</v>
-      </c>
-      <c r="H138" s="5">
-        <v>0</v>
-      </c>
-      <c r="I138" s="5">
-        <v>0</v>
-      </c>
-      <c r="J138" s="5">
-        <v>0</v>
-      </c>
-      <c r="K138" s="5">
-        <v>1</v>
-      </c>
-      <c r="L138" s="5">
-        <v>0</v>
-      </c>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="7">
@@ -5719,24 +4063,12 @@
       <c r="F139" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G139" s="5">
-        <v>0</v>
-      </c>
-      <c r="H139" s="5">
-        <v>0</v>
-      </c>
-      <c r="I139" s="5">
-        <v>0</v>
-      </c>
-      <c r="J139" s="5">
-        <v>0</v>
-      </c>
-      <c r="K139" s="5">
-        <v>1</v>
-      </c>
-      <c r="L139" s="5">
-        <v>0</v>
-      </c>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="7">
@@ -5757,24 +4089,12 @@
       <c r="F140" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G140" s="5">
-        <v>0</v>
-      </c>
-      <c r="H140" s="5">
-        <v>0</v>
-      </c>
-      <c r="I140" s="5">
-        <v>0</v>
-      </c>
-      <c r="J140" s="5">
-        <v>0</v>
-      </c>
-      <c r="K140" s="5">
-        <v>1</v>
-      </c>
-      <c r="L140" s="5">
-        <v>0</v>
-      </c>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="7">
@@ -5795,24 +4115,12 @@
       <c r="F141" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G141" s="5">
-        <v>0</v>
-      </c>
-      <c r="H141" s="5">
-        <v>0</v>
-      </c>
-      <c r="I141" s="5">
-        <v>0</v>
-      </c>
-      <c r="J141" s="5">
-        <v>0</v>
-      </c>
-      <c r="K141" s="5">
-        <v>1</v>
-      </c>
-      <c r="L141" s="5">
-        <v>0</v>
-      </c>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="7">
@@ -5833,24 +4141,12 @@
       <c r="F142" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G142" s="5">
-        <v>0</v>
-      </c>
-      <c r="H142" s="5">
-        <v>0</v>
-      </c>
-      <c r="I142" s="5">
-        <v>0</v>
-      </c>
-      <c r="J142" s="5">
-        <v>0</v>
-      </c>
-      <c r="K142" s="5">
-        <v>1</v>
-      </c>
-      <c r="L142" s="5">
-        <v>0</v>
-      </c>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="7">
@@ -5871,24 +4167,12 @@
       <c r="F143" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G143" s="5">
-        <v>0</v>
-      </c>
-      <c r="H143" s="5">
-        <v>0</v>
-      </c>
-      <c r="I143" s="5">
-        <v>0</v>
-      </c>
-      <c r="J143" s="5">
-        <v>0</v>
-      </c>
-      <c r="K143" s="5">
-        <v>1</v>
-      </c>
-      <c r="L143" s="5">
-        <v>0</v>
-      </c>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="7">
@@ -5909,24 +4193,12 @@
       <c r="F144" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G144" s="5">
-        <v>0</v>
-      </c>
-      <c r="H144" s="5">
-        <v>0</v>
-      </c>
-      <c r="I144" s="5">
-        <v>0</v>
-      </c>
-      <c r="J144" s="5">
-        <v>0</v>
-      </c>
-      <c r="K144" s="5">
-        <v>1</v>
-      </c>
-      <c r="L144" s="5">
-        <v>0</v>
-      </c>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="7">
@@ -5947,24 +4219,12 @@
       <c r="F145" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G145" s="5">
-        <v>0</v>
-      </c>
-      <c r="H145" s="5">
-        <v>0</v>
-      </c>
-      <c r="I145" s="5">
-        <v>0</v>
-      </c>
-      <c r="J145" s="5">
-        <v>0</v>
-      </c>
-      <c r="K145" s="5">
-        <v>1</v>
-      </c>
-      <c r="L145" s="5">
-        <v>0</v>
-      </c>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="7">
@@ -5985,24 +4245,12 @@
       <c r="F146" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G146" s="5">
-        <v>0</v>
-      </c>
-      <c r="H146" s="5">
-        <v>0</v>
-      </c>
-      <c r="I146" s="5">
-        <v>0</v>
-      </c>
-      <c r="J146" s="5">
-        <v>0</v>
-      </c>
-      <c r="K146" s="5">
-        <v>1</v>
-      </c>
-      <c r="L146" s="5">
-        <v>0</v>
-      </c>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="7">
@@ -6023,24 +4271,12 @@
       <c r="F147" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G147" s="5">
-        <v>0</v>
-      </c>
-      <c r="H147" s="5">
-        <v>0</v>
-      </c>
-      <c r="I147" s="5">
-        <v>0</v>
-      </c>
-      <c r="J147" s="5">
-        <v>0</v>
-      </c>
-      <c r="K147" s="5">
-        <v>1</v>
-      </c>
-      <c r="L147" s="5">
-        <v>0</v>
-      </c>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="7">
@@ -6061,24 +4297,12 @@
       <c r="F148" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G148" s="5">
-        <v>0</v>
-      </c>
-      <c r="H148" s="5">
-        <v>0</v>
-      </c>
-      <c r="I148" s="5">
-        <v>0</v>
-      </c>
-      <c r="J148" s="5">
-        <v>0</v>
-      </c>
-      <c r="K148" s="5">
-        <v>1</v>
-      </c>
-      <c r="L148" s="5">
-        <v>0</v>
-      </c>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="7">
@@ -6099,24 +4323,12 @@
       <c r="F149" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G149" s="5">
-        <v>0</v>
-      </c>
-      <c r="H149" s="5">
-        <v>0</v>
-      </c>
-      <c r="I149" s="5">
-        <v>0</v>
-      </c>
-      <c r="J149" s="5">
-        <v>0</v>
-      </c>
-      <c r="K149" s="5">
-        <v>0</v>
-      </c>
-      <c r="L149" s="5">
-        <v>1</v>
-      </c>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="7">
@@ -6137,24 +4349,12 @@
       <c r="F150" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G150" s="5">
-        <v>0</v>
-      </c>
-      <c r="H150" s="5">
-        <v>0</v>
-      </c>
-      <c r="I150" s="5">
-        <v>0</v>
-      </c>
-      <c r="J150" s="5">
-        <v>0</v>
-      </c>
-      <c r="K150" s="5">
-        <v>0</v>
-      </c>
-      <c r="L150" s="5">
-        <v>1</v>
-      </c>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="7">
@@ -6175,24 +4375,12 @@
       <c r="F151" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G151" s="5">
-        <v>0</v>
-      </c>
-      <c r="H151" s="5">
-        <v>0</v>
-      </c>
-      <c r="I151" s="5">
-        <v>0</v>
-      </c>
-      <c r="J151" s="5">
-        <v>0</v>
-      </c>
-      <c r="K151" s="5">
-        <v>0</v>
-      </c>
-      <c r="L151" s="5">
-        <v>1</v>
-      </c>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="7">
@@ -6213,24 +4401,12 @@
       <c r="F152" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G152" s="5">
-        <v>0</v>
-      </c>
-      <c r="H152" s="5">
-        <v>0</v>
-      </c>
-      <c r="I152" s="5">
-        <v>0</v>
-      </c>
-      <c r="J152" s="5">
-        <v>0</v>
-      </c>
-      <c r="K152" s="5">
-        <v>0</v>
-      </c>
-      <c r="L152" s="5">
-        <v>1</v>
-      </c>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="7">
@@ -6251,24 +4427,12 @@
       <c r="F153" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G153" s="5">
-        <v>0</v>
-      </c>
-      <c r="H153" s="5">
-        <v>0</v>
-      </c>
-      <c r="I153" s="5">
-        <v>0</v>
-      </c>
-      <c r="J153" s="5">
-        <v>0</v>
-      </c>
-      <c r="K153" s="5">
-        <v>0</v>
-      </c>
-      <c r="L153" s="5">
-        <v>1</v>
-      </c>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="7">
@@ -6289,24 +4453,12 @@
       <c r="F154" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G154" s="5">
-        <v>0</v>
-      </c>
-      <c r="H154" s="5">
-        <v>0</v>
-      </c>
-      <c r="I154" s="5">
-        <v>0</v>
-      </c>
-      <c r="J154" s="5">
-        <v>0</v>
-      </c>
-      <c r="K154" s="5">
-        <v>0</v>
-      </c>
-      <c r="L154" s="5">
-        <v>1</v>
-      </c>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="7">
@@ -6327,24 +4479,12 @@
       <c r="F155" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G155" s="5">
-        <v>0</v>
-      </c>
-      <c r="H155" s="5">
-        <v>0</v>
-      </c>
-      <c r="I155" s="5">
-        <v>0</v>
-      </c>
-      <c r="J155" s="5">
-        <v>0</v>
-      </c>
-      <c r="K155" s="5">
-        <v>0</v>
-      </c>
-      <c r="L155" s="5">
-        <v>1</v>
-      </c>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="7">
@@ -6365,24 +4505,12 @@
       <c r="F156" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G156" s="5">
-        <v>0</v>
-      </c>
-      <c r="H156" s="5">
-        <v>0</v>
-      </c>
-      <c r="I156" s="5">
-        <v>0</v>
-      </c>
-      <c r="J156" s="5">
-        <v>0</v>
-      </c>
-      <c r="K156" s="5">
-        <v>0</v>
-      </c>
-      <c r="L156" s="5">
-        <v>1</v>
-      </c>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="7">
@@ -6403,24 +4531,12 @@
       <c r="F157" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G157" s="5">
-        <v>0</v>
-      </c>
-      <c r="H157" s="5">
-        <v>0</v>
-      </c>
-      <c r="I157" s="5">
-        <v>0</v>
-      </c>
-      <c r="J157" s="5">
-        <v>0</v>
-      </c>
-      <c r="K157" s="5">
-        <v>0</v>
-      </c>
-      <c r="L157" s="5">
-        <v>1</v>
-      </c>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="7">
@@ -6441,24 +4557,12 @@
       <c r="F158" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G158" s="5">
-        <v>0</v>
-      </c>
-      <c r="H158" s="5">
-        <v>0</v>
-      </c>
-      <c r="I158" s="5">
-        <v>0</v>
-      </c>
-      <c r="J158" s="5">
-        <v>0</v>
-      </c>
-      <c r="K158" s="5">
-        <v>0</v>
-      </c>
-      <c r="L158" s="5">
-        <v>1</v>
-      </c>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="7">
@@ -6479,24 +4583,12 @@
       <c r="F159" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G159" s="5">
-        <v>0</v>
-      </c>
-      <c r="H159" s="5">
-        <v>0</v>
-      </c>
-      <c r="I159" s="5">
-        <v>0</v>
-      </c>
-      <c r="J159" s="5">
-        <v>0</v>
-      </c>
-      <c r="K159" s="5">
-        <v>0</v>
-      </c>
-      <c r="L159" s="5">
-        <v>1</v>
-      </c>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="7">
@@ -6517,24 +4609,12 @@
       <c r="F160" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G160" s="5">
-        <v>0</v>
-      </c>
-      <c r="H160" s="5">
-        <v>0</v>
-      </c>
-      <c r="I160" s="5">
-        <v>0</v>
-      </c>
-      <c r="J160" s="5">
-        <v>0</v>
-      </c>
-      <c r="K160" s="5">
-        <v>0</v>
-      </c>
-      <c r="L160" s="5">
-        <v>1</v>
-      </c>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="7">
@@ -6555,24 +4635,12 @@
       <c r="F161" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G161" s="5">
-        <v>0</v>
-      </c>
-      <c r="H161" s="5">
-        <v>0</v>
-      </c>
-      <c r="I161" s="5">
-        <v>0</v>
-      </c>
-      <c r="J161" s="5">
-        <v>0</v>
-      </c>
-      <c r="K161" s="5">
-        <v>0</v>
-      </c>
-      <c r="L161" s="5">
-        <v>1</v>
-      </c>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="7">
@@ -6593,24 +4661,12 @@
       <c r="F162" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G162" s="5">
-        <v>0</v>
-      </c>
-      <c r="H162" s="5">
-        <v>0</v>
-      </c>
-      <c r="I162" s="5">
-        <v>0</v>
-      </c>
-      <c r="J162" s="5">
-        <v>0</v>
-      </c>
-      <c r="K162" s="5">
-        <v>0</v>
-      </c>
-      <c r="L162" s="5">
-        <v>1</v>
-      </c>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="7">
@@ -6631,24 +4687,12 @@
       <c r="F163" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G163" s="5">
-        <v>0</v>
-      </c>
-      <c r="H163" s="5">
-        <v>0</v>
-      </c>
-      <c r="I163" s="5">
-        <v>0</v>
-      </c>
-      <c r="J163" s="5">
-        <v>0</v>
-      </c>
-      <c r="K163" s="5">
-        <v>0</v>
-      </c>
-      <c r="L163" s="5">
-        <v>1</v>
-      </c>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="7">
@@ -6669,24 +4713,12 @@
       <c r="F164" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G164" s="5">
-        <v>0</v>
-      </c>
-      <c r="H164" s="5">
-        <v>0</v>
-      </c>
-      <c r="I164" s="5">
-        <v>0</v>
-      </c>
-      <c r="J164" s="5">
-        <v>0</v>
-      </c>
-      <c r="K164" s="5">
-        <v>0</v>
-      </c>
-      <c r="L164" s="5">
-        <v>1</v>
-      </c>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="7">
@@ -6707,24 +4739,12 @@
       <c r="F165" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G165" s="5">
-        <v>0</v>
-      </c>
-      <c r="H165" s="5">
-        <v>0</v>
-      </c>
-      <c r="I165" s="5">
-        <v>0</v>
-      </c>
-      <c r="J165" s="5">
-        <v>0</v>
-      </c>
-      <c r="K165" s="5">
-        <v>0</v>
-      </c>
-      <c r="L165" s="5">
-        <v>1</v>
-      </c>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="7">
@@ -6745,24 +4765,12 @@
       <c r="F166" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G166" s="5">
-        <v>0</v>
-      </c>
-      <c r="H166" s="5">
-        <v>0</v>
-      </c>
-      <c r="I166" s="5">
-        <v>0</v>
-      </c>
-      <c r="J166" s="5">
-        <v>0</v>
-      </c>
-      <c r="K166" s="5">
-        <v>0</v>
-      </c>
-      <c r="L166" s="5">
-        <v>1</v>
-      </c>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="7">
@@ -6783,24 +4791,12 @@
       <c r="F167" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G167" s="5">
-        <v>0</v>
-      </c>
-      <c r="H167" s="5">
-        <v>0</v>
-      </c>
-      <c r="I167" s="5">
-        <v>0</v>
-      </c>
-      <c r="J167" s="5">
-        <v>0</v>
-      </c>
-      <c r="K167" s="5">
-        <v>0</v>
-      </c>
-      <c r="L167" s="5">
-        <v>1</v>
-      </c>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="7">
@@ -6821,24 +4817,12 @@
       <c r="F168" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G168" s="5">
-        <v>0</v>
-      </c>
-      <c r="H168" s="5">
-        <v>0</v>
-      </c>
-      <c r="I168" s="5">
-        <v>0</v>
-      </c>
-      <c r="J168" s="5">
-        <v>0</v>
-      </c>
-      <c r="K168" s="5">
-        <v>0</v>
-      </c>
-      <c r="L168" s="5">
-        <v>1</v>
-      </c>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="7">
@@ -6859,24 +4843,12 @@
       <c r="F169" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G169" s="5">
-        <v>0</v>
-      </c>
-      <c r="H169" s="5">
-        <v>0</v>
-      </c>
-      <c r="I169" s="5">
-        <v>0</v>
-      </c>
-      <c r="J169" s="5">
-        <v>0</v>
-      </c>
-      <c r="K169" s="5">
-        <v>0</v>
-      </c>
-      <c r="L169" s="5">
-        <v>1</v>
-      </c>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="7">
@@ -6897,24 +4869,12 @@
       <c r="F170" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G170" s="5">
-        <v>0</v>
-      </c>
-      <c r="H170" s="5">
-        <v>0</v>
-      </c>
-      <c r="I170" s="5">
-        <v>0</v>
-      </c>
-      <c r="J170" s="5">
-        <v>0</v>
-      </c>
-      <c r="K170" s="5">
-        <v>0</v>
-      </c>
-      <c r="L170" s="5">
-        <v>1</v>
-      </c>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="7">
@@ -6935,24 +4895,12 @@
       <c r="F171" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G171" s="5">
-        <v>0</v>
-      </c>
-      <c r="H171" s="5">
-        <v>0</v>
-      </c>
-      <c r="I171" s="5">
-        <v>0</v>
-      </c>
-      <c r="J171" s="5">
-        <v>0</v>
-      </c>
-      <c r="K171" s="5">
-        <v>0</v>
-      </c>
-      <c r="L171" s="5">
-        <v>1</v>
-      </c>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="7">
@@ -6973,24 +4921,12 @@
       <c r="F172" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G172" s="5">
-        <v>0</v>
-      </c>
-      <c r="H172" s="5">
-        <v>0</v>
-      </c>
-      <c r="I172" s="5">
-        <v>0</v>
-      </c>
-      <c r="J172" s="5">
-        <v>0</v>
-      </c>
-      <c r="K172" s="5">
-        <v>0</v>
-      </c>
-      <c r="L172" s="5">
-        <v>1</v>
-      </c>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="7">
@@ -7011,24 +4947,12 @@
       <c r="F173" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G173" s="5">
-        <v>0</v>
-      </c>
-      <c r="H173" s="5">
-        <v>0</v>
-      </c>
-      <c r="I173" s="5">
-        <v>0</v>
-      </c>
-      <c r="J173" s="5">
-        <v>0</v>
-      </c>
-      <c r="K173" s="5">
-        <v>0</v>
-      </c>
-      <c r="L173" s="5">
-        <v>1</v>
-      </c>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="7">
@@ -7049,24 +4973,12 @@
       <c r="F174" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G174" s="5">
-        <v>0</v>
-      </c>
-      <c r="H174" s="5">
-        <v>0</v>
-      </c>
-      <c r="I174" s="5">
-        <v>0</v>
-      </c>
-      <c r="J174" s="5">
-        <v>0</v>
-      </c>
-      <c r="K174" s="5">
-        <v>0</v>
-      </c>
-      <c r="L174" s="5">
-        <v>1</v>
-      </c>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="7">
@@ -7087,24 +4999,12 @@
       <c r="F175" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G175" s="5">
-        <v>0</v>
-      </c>
-      <c r="H175" s="5">
-        <v>0</v>
-      </c>
-      <c r="I175" s="5">
-        <v>0</v>
-      </c>
-      <c r="J175" s="5">
-        <v>0</v>
-      </c>
-      <c r="K175" s="5">
-        <v>0</v>
-      </c>
-      <c r="L175" s="5">
-        <v>1</v>
-      </c>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="5"/>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="7">
@@ -7125,24 +5025,12 @@
       <c r="F176" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G176" s="5">
-        <v>0</v>
-      </c>
-      <c r="H176" s="5">
-        <v>0</v>
-      </c>
-      <c r="I176" s="5">
-        <v>0</v>
-      </c>
-      <c r="J176" s="5">
-        <v>0</v>
-      </c>
-      <c r="K176" s="5">
-        <v>0</v>
-      </c>
-      <c r="L176" s="5">
-        <v>1</v>
-      </c>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="5"/>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="2"/>
